--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_19_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1230475.679402879</v>
+        <v>1226463.876670782</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29001646.18518387</v>
+        <v>29001646.18518385</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6432656.960140345</v>
+        <v>6432656.960140343</v>
       </c>
     </row>
     <row r="9">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.9557790942234</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>349.2656294801608</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>19.46472144684022</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I13" t="n">
         <v>71.96559361603954</v>
@@ -1593,7 +1593,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>163.4500464211468</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>173.4779215309406</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.612391572116</v>
+        <v>1.770057597754489</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7030512222169</v>
+        <v>149.7547543748887</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I16" t="n">
         <v>71.96559361603954</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.097464026797</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>63.26808253165672</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>389.7838137938496</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>389.3452756638453</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.6207332063021</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.8999186087154</v>
+        <v>149.7547543748888</v>
       </c>
       <c r="T19" t="n">
         <v>237.097464026797</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>244.9726946029027</v>
+        <v>336.9645032561141</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>44.63220474137481</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>113.9353216629384</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.8999186087154</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.097464026797</v>
@@ -2323,19 +2323,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>104.9744057101471</v>
       </c>
       <c r="E23" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>336.6466109322077</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.0177446442483</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064817</v>
       </c>
       <c r="S25" t="n">
         <v>152.8999186087154</v>
@@ -2532,7 +2532,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989982</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>224.081614518768</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>278.707357094008</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>134.4334047779237</v>
       </c>
       <c r="I28" t="n">
-        <v>71.96559361603957</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.489944470648574</v>
+        <v>6.48994447064862</v>
       </c>
       <c r="S28" t="n">
         <v>152.8999186087154</v>
@@ -2769,7 +2769,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
@@ -2800,16 +2800,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H29" t="n">
-        <v>8.667530646470581</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.612391572116</v>
+        <v>83.20767106564415</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>163.7030512222169</v>
       </c>
       <c r="H31" t="n">
-        <v>134.4334047779238</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I31" t="n">
         <v>71.96559361603954</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>272.1038797892122</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3034,19 +3034,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>25.96225182791997</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>22.99866282661722</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.0177446442483</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3243,7 +3243,7 @@
         <v>237.097464026797</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3339849899809</v>
+        <v>277.333984989981</v>
       </c>
       <c r="V34" t="n">
         <v>278.8943527180514</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>367.1687897402918</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>124.1091360864871</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.5164813097191</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>135.2622484344808</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
@@ -3505,10 +3505,10 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>161.6520658226421</v>
+        <v>152.7408033154886</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>398.3085625684984</v>
       </c>
       <c r="H38" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>141.8120347021384</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>33.00099667026318</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>152.8999186087154</v>
@@ -3720,7 +3720,7 @@
         <v>277.3339849899809</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>231.1875312436911</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>349.0787030444237</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3808,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3906,16 +3906,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>125.6923903010996</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I43" t="n">
         <v>71.96559361603954</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.489944470648574</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>152.8999186087154</v>
+        <v>147.7581977436861</v>
       </c>
       <c r="T43" t="n">
         <v>237.097464026797</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3339849899809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>74.53949058202252</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>45.52262477672461</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>59.64154234771919</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H46" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>152.8999186087154</v>
       </c>
       <c r="T46" t="n">
-        <v>65.77875017782438</v>
+        <v>237.097464026797</v>
       </c>
       <c r="U46" t="n">
         <v>277.3339849899809</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.7803300931902</v>
+        <v>1058.12123850826</v>
       </c>
       <c r="C11" t="n">
-        <v>467.8796001064903</v>
+        <v>1058.12123850826</v>
       </c>
       <c r="D11" t="n">
-        <v>467.8796001064903</v>
+        <v>1058.12123850826</v>
       </c>
       <c r="E11" t="n">
-        <v>467.8796001064903</v>
+        <v>632.1442986561175</v>
       </c>
       <c r="F11" t="n">
-        <v>42.75541829589046</v>
+        <v>632.1442986561175</v>
       </c>
       <c r="G11" t="n">
-        <v>42.75541829589046</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H11" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I11" t="n">
-        <v>84.39494262103614</v>
+        <v>84.39494262103617</v>
       </c>
       <c r="J11" t="n">
         <v>222.2360596072045</v>
       </c>
       <c r="K11" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715610005</v>
       </c>
       <c r="L11" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M11" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N11" t="n">
-        <v>1332.07042163564</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O11" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P11" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q11" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R11" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S11" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.142258348449</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.142258348449</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.142258348449</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.422259516196</v>
+        <v>1463.45850855337</v>
       </c>
       <c r="Y11" t="n">
-        <v>1314.62869438472</v>
+        <v>1058.12123850826</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C12" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D12" t="n">
         <v>377.0871448858306</v>
@@ -5111,13 +5111,13 @@
         <v>178.739380841672</v>
       </c>
       <c r="G12" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H12" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I12" t="n">
-        <v>62.98439029745214</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J12" t="n">
         <v>142.0237151377162</v>
@@ -5129,7 +5129,7 @@
         <v>496.0652591283641</v>
       </c>
       <c r="M12" t="n">
-        <v>1002.337654088804</v>
+        <v>739.8954600838655</v>
       </c>
       <c r="N12" t="n">
         <v>1254.962719722999</v>
@@ -5162,10 +5162,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X12" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y12" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.8470976898196</v>
+        <v>765.7821859688122</v>
       </c>
       <c r="C13" t="n">
-        <v>618.8745345687356</v>
+        <v>746.1208511740241</v>
       </c>
       <c r="D13" t="n">
-        <v>618.8745345687356</v>
+        <v>582.8040783007948</v>
       </c>
       <c r="E13" t="n">
-        <v>452.6663287215891</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="F13" t="n">
-        <v>280.8045544961495</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G13" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H13" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I13" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J13" t="n">
-        <v>84.71320548484806</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K13" t="n">
-        <v>413.7637441131362</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L13" t="n">
-        <v>899.647127896349</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M13" t="n">
-        <v>1428.745429307994</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N13" t="n">
-        <v>1901.228790463881</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O13" t="n">
-        <v>2003.682813232011</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P13" t="n">
-        <v>2088.252358880158</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R13" t="n">
-        <v>2131.215415329221</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S13" t="n">
         <v>1976.771053098196</v>
       </c>
       <c r="T13" t="n">
-        <v>1737.27866519234</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U13" t="n">
-        <v>1457.143326818622</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V13" t="n">
-        <v>1457.143326818622</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.290922991135</v>
+        <v>1182.290922991136</v>
       </c>
       <c r="X13" t="n">
-        <v>1017.189866000078</v>
+        <v>1182.290922991136</v>
       </c>
       <c r="Y13" t="n">
-        <v>790.8470976898196</v>
+        <v>955.9481546808779</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1043.610144261839</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="C14" t="n">
-        <v>1043.610144261839</v>
+        <v>892.0249789630327</v>
       </c>
       <c r="D14" t="n">
-        <v>620.317523446839</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E14" t="n">
-        <v>620.317523446839</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F14" t="n">
-        <v>620.317523446839</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G14" t="n">
-        <v>217.9856420645173</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H14" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I14" t="n">
         <v>84.39494262103608</v>
       </c>
       <c r="J14" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K14" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L14" t="n">
-        <v>709.5851800848322</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M14" t="n">
         <v>1017.958031365649</v>
@@ -5293,37 +5293,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O14" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P14" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q14" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R14" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S14" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T14" t="n">
-        <v>2079.142258348449</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U14" t="n">
-        <v>1820.947923427119</v>
+        <v>2135.982977827095</v>
       </c>
       <c r="V14" t="n">
-        <v>1463.458508553369</v>
+        <v>2135.982977827095</v>
       </c>
       <c r="W14" t="n">
-        <v>1463.458508553369</v>
+        <v>2135.982977827095</v>
       </c>
       <c r="X14" t="n">
-        <v>1463.458508553369</v>
+        <v>1724.262978994842</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.458508553369</v>
+        <v>1318.925708949733</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C15" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D15" t="n">
         <v>377.0871448858306</v>
@@ -5348,19 +5348,19 @@
         <v>178.739380841672</v>
       </c>
       <c r="G15" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H15" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I15" t="n">
-        <v>62.98439029745214</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J15" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426543</v>
       </c>
       <c r="K15" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109025</v>
       </c>
       <c r="L15" t="n">
         <v>758.5074531333022</v>
@@ -5399,10 +5399,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X15" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y15" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>610.3295332165253</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="C16" t="n">
-        <v>610.3295332165253</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="D16" t="n">
-        <v>447.012760343296</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="E16" t="n">
-        <v>280.8045544961495</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="F16" t="n">
-        <v>280.8045544961495</v>
+        <v>402.5066837189733</v>
       </c>
       <c r="G16" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H16" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I16" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J16" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K16" t="n">
         <v>491.6854607613571</v>
       </c>
       <c r="L16" t="n">
-        <v>601.1799509534051</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M16" t="n">
-        <v>1130.278252365049</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N16" t="n">
-        <v>1642.80643034845</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O16" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P16" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q16" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R16" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S16" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T16" t="n">
-        <v>1737.27866519234</v>
+        <v>1898.278526888668</v>
       </c>
       <c r="U16" t="n">
-        <v>1457.143326818622</v>
+        <v>1618.14318851495</v>
       </c>
       <c r="V16" t="n">
-        <v>1175.431859426651</v>
+        <v>1336.431721122979</v>
       </c>
       <c r="W16" t="n">
-        <v>900.5794555991638</v>
+        <v>1061.579317295492</v>
       </c>
       <c r="X16" t="n">
-        <v>836.6723015267833</v>
+        <v>819.0154207412969</v>
       </c>
       <c r="Y16" t="n">
-        <v>610.3295332165253</v>
+        <v>592.672652431039</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>859.3260953369966</v>
+        <v>1744.049890760332</v>
       </c>
       <c r="C17" t="n">
-        <v>859.3260953369966</v>
+        <v>1317.149160773633</v>
       </c>
       <c r="D17" t="n">
-        <v>436.0334745219968</v>
+        <v>893.8565399586328</v>
       </c>
       <c r="E17" t="n">
-        <v>436.0334745219968</v>
+        <v>467.8796001064903</v>
       </c>
       <c r="F17" t="n">
-        <v>436.0334745219968</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G17" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H17" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I17" t="n">
-        <v>84.39494262103631</v>
+        <v>84.39494262103653</v>
       </c>
       <c r="J17" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072051</v>
       </c>
       <c r="K17" t="n">
-        <v>437.0691715610005</v>
+        <v>437.069171561001</v>
       </c>
       <c r="L17" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848328</v>
       </c>
       <c r="M17" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N17" t="n">
         <v>1332.070421635641</v>
       </c>
       <c r="O17" t="n">
-        <v>1626.510864636164</v>
+        <v>1626.510864636165</v>
       </c>
       <c r="P17" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q17" t="n">
-        <v>2048.878716272599</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S17" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="T17" t="n">
-        <v>1925.631778790232</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="U17" t="n">
-        <v>1667.437443868902</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="V17" t="n">
-        <v>1667.437443868902</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="W17" t="n">
-        <v>1271.046094169249</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="X17" t="n">
-        <v>859.3260953369966</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="Y17" t="n">
-        <v>859.3260953369966</v>
+        <v>2137.770914794524</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>598.4330068530408</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C18" t="n">
-        <v>480.9271033705455</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D18" t="n">
         <v>377.0871448858306</v>
@@ -5585,19 +5585,19 @@
         <v>178.739380841672</v>
       </c>
       <c r="G18" t="n">
-        <v>85.75954558772926</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H18" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I18" t="n">
-        <v>62.98439029745214</v>
+        <v>62.98439029745215</v>
       </c>
       <c r="J18" t="n">
-        <v>142.0237151377162</v>
+        <v>404.4659091426543</v>
       </c>
       <c r="K18" t="n">
-        <v>289.8146695059644</v>
+        <v>552.2568635109025</v>
       </c>
       <c r="L18" t="n">
         <v>758.5074531333022</v>
@@ -5636,10 +5636,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X18" t="n">
-        <v>867.0529049198111</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y18" t="n">
-        <v>727.3600162731035</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>241.5068220226453</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="C19" t="n">
-        <v>241.5068220226453</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="D19" t="n">
-        <v>241.5068220226453</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="E19" t="n">
-        <v>214.61719252133</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="F19" t="n">
-        <v>42.75541829589046</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="G19" t="n">
-        <v>42.75541829589046</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H19" t="n">
-        <v>42.75541829589046</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I19" t="n">
-        <v>42.75541829589046</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J19" t="n">
-        <v>162.6349221330689</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K19" t="n">
-        <v>244.402851647335</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L19" t="n">
-        <v>353.897341839383</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M19" t="n">
-        <v>882.9956432510274</v>
+        <v>1388.700612480482</v>
       </c>
       <c r="N19" t="n">
-        <v>1059.396764209471</v>
+        <v>1901.228790463882</v>
       </c>
       <c r="O19" t="n">
-        <v>1539.553111280805</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P19" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q19" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R19" t="n">
-        <v>2131.215415329221</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S19" t="n">
-        <v>1976.771053098196</v>
+        <v>1986.50348613302</v>
       </c>
       <c r="T19" t="n">
-        <v>1737.27866519234</v>
+        <v>1747.011098227164</v>
       </c>
       <c r="U19" t="n">
-        <v>1457.143326818622</v>
+        <v>1466.875759853446</v>
       </c>
       <c r="V19" t="n">
-        <v>1175.431859426651</v>
+        <v>1185.164292461475</v>
       </c>
       <c r="W19" t="n">
-        <v>900.5794555991638</v>
+        <v>910.3118886339881</v>
       </c>
       <c r="X19" t="n">
-        <v>658.0155590449689</v>
+        <v>667.7479920797932</v>
       </c>
       <c r="Y19" t="n">
-        <v>431.6727907347109</v>
+        <v>441.4052237695352</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1573.500757161562</v>
+        <v>1318.925708949733</v>
       </c>
       <c r="C20" t="n">
-        <v>1573.500757161562</v>
+        <v>892.0249789630327</v>
       </c>
       <c r="D20" t="n">
-        <v>1573.500757161562</v>
+        <v>468.7323581480329</v>
       </c>
       <c r="E20" t="n">
-        <v>1147.523817309419</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="F20" t="n">
-        <v>722.3996354988195</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="G20" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="H20" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I20" t="n">
-        <v>84.39494262103608</v>
+        <v>84.39494262103563</v>
       </c>
       <c r="J20" t="n">
-        <v>222.2360596072045</v>
+        <v>222.236059607204</v>
       </c>
       <c r="K20" t="n">
-        <v>437.0691715610002</v>
+        <v>437.0691715609998</v>
       </c>
       <c r="L20" t="n">
-        <v>709.585180084832</v>
+        <v>709.5851800848316</v>
       </c>
       <c r="M20" t="n">
         <v>1017.958031365649</v>
       </c>
       <c r="N20" t="n">
-        <v>1332.070421635641</v>
+        <v>1332.07042163564</v>
       </c>
       <c r="O20" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P20" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q20" t="n">
-        <v>2048.8787162726</v>
+        <v>2048.878716272599</v>
       </c>
       <c r="R20" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S20" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T20" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U20" t="n">
-        <v>1820.94792342712</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="V20" t="n">
-        <v>1820.94792342712</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="W20" t="n">
-        <v>1820.94792342712</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="X20" t="n">
-        <v>1820.94792342712</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="Y20" t="n">
-        <v>1573.500757161562</v>
+        <v>1738.774073241263</v>
       </c>
     </row>
     <row r="21">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>598.4330068530409</v>
+        <v>598.4330068530408</v>
       </c>
       <c r="C21" t="n">
-        <v>480.9271033705456</v>
+        <v>480.9271033705455</v>
       </c>
       <c r="D21" t="n">
         <v>377.0871448858306</v>
@@ -5822,37 +5822,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G21" t="n">
-        <v>85.75954558772929</v>
+        <v>85.75954558772926</v>
       </c>
       <c r="H21" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="I21" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186397</v>
       </c>
       <c r="J21" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K21" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L21" t="n">
-        <v>496.0652591283641</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M21" t="n">
-        <v>739.8954600838655</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N21" t="n">
-        <v>992.520525718061</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O21" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P21" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q21" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R21" t="n">
         <v>1815.649874842555</v>
@@ -5873,10 +5873,10 @@
         <v>1030.530251153148</v>
       </c>
       <c r="X21" t="n">
-        <v>867.0529049198112</v>
+        <v>867.0529049198111</v>
       </c>
       <c r="Y21" t="n">
-        <v>727.3600162731036</v>
+        <v>727.3600162731035</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.589755642414</v>
+        <v>402.5066837189724</v>
       </c>
       <c r="C22" t="n">
-        <v>214.6171925213301</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="D22" t="n">
-        <v>214.6171925213301</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="E22" t="n">
-        <v>214.6171925213301</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="F22" t="n">
-        <v>42.75541829589048</v>
+        <v>230.5341205978884</v>
       </c>
       <c r="G22" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="H22" t="n">
-        <v>42.75541829589048</v>
+        <v>115.4479370999708</v>
       </c>
       <c r="I22" t="n">
-        <v>42.75541829589048</v>
+        <v>42.75541829589046</v>
       </c>
       <c r="J22" t="n">
-        <v>162.634922133069</v>
+        <v>162.6349221330689</v>
       </c>
       <c r="K22" t="n">
-        <v>244.4028516473351</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L22" t="n">
-        <v>730.286235430548</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M22" t="n">
-        <v>944.9015090679525</v>
+        <v>1506.667145956214</v>
       </c>
       <c r="N22" t="n">
-        <v>1059.396764209473</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O22" t="n">
-        <v>1539.553111280806</v>
+        <v>2003.682813232011</v>
       </c>
       <c r="P22" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q22" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R22" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S22" t="n">
-        <v>1976.771053098196</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="T22" t="n">
-        <v>1737.278665192341</v>
+        <v>1898.278526888667</v>
       </c>
       <c r="U22" t="n">
-        <v>1457.143326818623</v>
+        <v>1618.143188514949</v>
       </c>
       <c r="V22" t="n">
-        <v>1175.431859426652</v>
+        <v>1336.431721122978</v>
       </c>
       <c r="W22" t="n">
-        <v>900.5794555991647</v>
+        <v>1061.579317295491</v>
       </c>
       <c r="X22" t="n">
-        <v>658.0155590449698</v>
+        <v>819.015420741296</v>
       </c>
       <c r="Y22" t="n">
-        <v>431.6727907347118</v>
+        <v>592.672652431038</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1252.995442670109</v>
+        <v>1296.295449983584</v>
       </c>
       <c r="C23" t="n">
-        <v>826.0947126834092</v>
+        <v>869.3947199968845</v>
       </c>
       <c r="D23" t="n">
-        <v>826.0947126834092</v>
+        <v>763.3599667543117</v>
       </c>
       <c r="E23" t="n">
-        <v>400.1177728312667</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="F23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="G23" t="n">
-        <v>60.07069108156194</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H23" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I23" t="n">
         <v>101.7102154067076</v>
       </c>
       <c r="J23" t="n">
-        <v>239.551332392876</v>
+        <v>486.8266814792219</v>
       </c>
       <c r="K23" t="n">
-        <v>454.3844443466718</v>
+        <v>701.6597934330177</v>
       </c>
       <c r="L23" t="n">
-        <v>726.9004528705036</v>
+        <v>974.1758019568495</v>
       </c>
       <c r="M23" t="n">
-        <v>1386.038561855856</v>
+        <v>1282.548653237666</v>
       </c>
       <c r="N23" t="n">
-        <v>1700.150952125847</v>
+        <v>1596.661043507658</v>
       </c>
       <c r="O23" t="n">
-        <v>1994.591395126371</v>
+        <v>2340.035845641987</v>
       </c>
       <c r="P23" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982949</v>
       </c>
       <c r="Q23" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R23" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S23" t="n">
-        <v>2944.905897632023</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T23" t="n">
-        <v>2732.766761627731</v>
+        <v>2791.395418073806</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.572426706402</v>
+        <v>2533.201083152477</v>
       </c>
       <c r="V23" t="n">
-        <v>2474.572426706402</v>
+        <v>2533.201083152477</v>
       </c>
       <c r="W23" t="n">
-        <v>2078.181077006749</v>
+        <v>2533.201083152477</v>
       </c>
       <c r="X23" t="n">
-        <v>2078.181077006749</v>
+        <v>2121.481084320224</v>
       </c>
       <c r="Y23" t="n">
-        <v>1672.843806961639</v>
+        <v>1716.143814275114</v>
       </c>
     </row>
     <row r="24">
@@ -6059,37 +6059,37 @@
         <v>196.0546536273434</v>
       </c>
       <c r="G24" t="n">
-        <v>103.0748183734007</v>
+        <v>103.0748183734008</v>
       </c>
       <c r="H24" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="I24" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J24" t="n">
-        <v>159.3389879233877</v>
+        <v>182.7962937677995</v>
       </c>
       <c r="K24" t="n">
-        <v>307.1299422916359</v>
+        <v>330.5872481360477</v>
       </c>
       <c r="L24" t="n">
-        <v>513.3805319140356</v>
+        <v>536.8378377584474</v>
       </c>
       <c r="M24" t="n">
-        <v>757.210732869537</v>
+        <v>780.6680387139488</v>
       </c>
       <c r="N24" t="n">
-        <v>1009.835798503732</v>
+        <v>1033.293104348144</v>
       </c>
       <c r="O24" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P24" t="n">
-        <v>1416.768316177413</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q24" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R24" t="n">
         <v>1832.965147628227</v>
@@ -6135,7 +6135,7 @@
         <v>605.7729194647593</v>
       </c>
       <c r="F25" t="n">
-        <v>433.9111452393198</v>
+        <v>433.9111452393197</v>
       </c>
       <c r="G25" t="n">
         <v>268.5545278431409</v>
@@ -6144,28 +6144,28 @@
         <v>132.7632098856423</v>
       </c>
       <c r="I25" t="n">
-        <v>60.07069108156194</v>
+        <v>60.07069108156195</v>
       </c>
       <c r="J25" t="n">
         <v>179.9501949187404</v>
       </c>
       <c r="K25" t="n">
-        <v>397.2373026266571</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L25" t="n">
-        <v>883.12068640987</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M25" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N25" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O25" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P25" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q25" t="n">
         <v>3003.534554078097</v>
@@ -6177,16 +6177,16 @@
         <v>2842.53469238177</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.042304475914</v>
+        <v>2603.042304475915</v>
       </c>
       <c r="U25" t="n">
-        <v>2322.906966102196</v>
+        <v>2322.906966102195</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.195498710225</v>
+        <v>2041.195498710224</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.343094882738</v>
+        <v>1766.343094882737</v>
       </c>
       <c r="X25" t="n">
         <v>1523.779198328543</v>
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1814.476776080563</v>
+        <v>1869.654293833331</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.131710910091</v>
+        <v>1869.654293833331</v>
       </c>
       <c r="D26" t="n">
-        <v>1164.839090095091</v>
+        <v>1446.361673018331</v>
       </c>
       <c r="E26" t="n">
         <v>1164.839090095091</v>
@@ -6226,52 +6226,52 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J26" t="n">
-        <v>239.551332392876</v>
+        <v>407.2193504324932</v>
       </c>
       <c r="K26" t="n">
-        <v>454.3844443466718</v>
+        <v>1150.594152566822</v>
       </c>
       <c r="L26" t="n">
-        <v>1197.759246481001</v>
+        <v>1423.110161090654</v>
       </c>
       <c r="M26" t="n">
-        <v>1506.132097761818</v>
+        <v>1731.483012371471</v>
       </c>
       <c r="N26" t="n">
-        <v>2197.834060919214</v>
+        <v>2045.595402641462</v>
       </c>
       <c r="O26" t="n">
-        <v>2492.274503919738</v>
+        <v>2340.035845641986</v>
       </c>
       <c r="P26" t="n">
-        <v>2737.9661972607</v>
+        <v>2585.727538982948</v>
       </c>
       <c r="Q26" t="n">
-        <v>2914.642355556173</v>
+        <v>2762.403697278422</v>
       </c>
       <c r="R26" t="n">
         <v>3003.534554078097</v>
       </c>
       <c r="S26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T26" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U26" t="n">
-        <v>3003.534554078097</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="V26" t="n">
-        <v>2646.045139204346</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="W26" t="n">
-        <v>2646.045139204346</v>
+        <v>2686.711562710693</v>
       </c>
       <c r="X26" t="n">
-        <v>2234.325140372093</v>
+        <v>2274.991563878441</v>
       </c>
       <c r="Y26" t="n">
-        <v>2234.325140372093</v>
+        <v>1869.654293833331</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I27" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J27" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K27" t="n">
-        <v>569.5721362965738</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L27" t="n">
-        <v>775.8227259189736</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M27" t="n">
-        <v>1019.652926874475</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N27" t="n">
-        <v>1272.27799250867</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O27" t="n">
-        <v>1499.76985653153</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P27" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R27" t="n">
         <v>1832.965147628227</v>
@@ -6393,16 +6393,16 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N28" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O28" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P28" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q28" t="n">
         <v>3003.534554078097</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1344.143305154943</v>
+        <v>2441.009380748933</v>
       </c>
       <c r="C29" t="n">
-        <v>917.2425751682429</v>
+        <v>2014.108650762233</v>
       </c>
       <c r="D29" t="n">
-        <v>493.9499543532431</v>
+        <v>1590.816029947233</v>
       </c>
       <c r="E29" t="n">
-        <v>493.9499543532431</v>
+        <v>1164.839090095091</v>
       </c>
       <c r="F29" t="n">
-        <v>68.82577254264334</v>
+        <v>739.714908284491</v>
       </c>
       <c r="G29" t="n">
-        <v>68.82577254264334</v>
+        <v>337.3830269021693</v>
       </c>
       <c r="H29" t="n">
         <v>60.07069108156194</v>
@@ -6463,25 +6463,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J29" t="n">
-        <v>239.551332392876</v>
+        <v>596.1507915280426</v>
       </c>
       <c r="K29" t="n">
-        <v>454.3844443466718</v>
+        <v>810.9839034818384</v>
       </c>
       <c r="L29" t="n">
-        <v>726.9004528705036</v>
+        <v>1083.49991200567</v>
       </c>
       <c r="M29" t="n">
-        <v>1035.273304151321</v>
+        <v>1391.872763286487</v>
       </c>
       <c r="N29" t="n">
-        <v>1349.385694421312</v>
+        <v>1705.985153556479</v>
       </c>
       <c r="O29" t="n">
-        <v>1643.826137421835</v>
+        <v>2000.425596557002</v>
       </c>
       <c r="P29" t="n">
-        <v>2246.117289897965</v>
+        <v>2246.117289897964</v>
       </c>
       <c r="Q29" t="n">
         <v>2914.642355556173</v>
@@ -6490,25 +6490,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S29" t="n">
-        <v>3003.534554078097</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="T29" t="n">
-        <v>2791.395418073806</v>
+        <v>2944.905897632023</v>
       </c>
       <c r="U29" t="n">
-        <v>2533.201083152476</v>
+        <v>2860.857745040463</v>
       </c>
       <c r="V29" t="n">
-        <v>2175.711668278725</v>
+        <v>2860.857745040463</v>
       </c>
       <c r="W29" t="n">
-        <v>2175.711668278725</v>
+        <v>2860.857745040463</v>
       </c>
       <c r="X29" t="n">
-        <v>1763.991669446473</v>
+        <v>2860.857745040463</v>
       </c>
       <c r="Y29" t="n">
-        <v>1763.991669446473</v>
+        <v>2860.857745040463</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I30" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J30" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K30" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L30" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M30" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N30" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O30" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P30" t="n">
-        <v>1679.210510182351</v>
+        <v>1573.755009897445</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.049965673171</v>
+        <v>1685.594465388265</v>
       </c>
       <c r="R30" t="n">
         <v>1832.965147628227</v>
@@ -6630,10 +6630,10 @@
         <v>994.8841173302415</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N31" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O31" t="n">
         <v>2405.316750564379</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1336.240981735404</v>
+        <v>1766.628920909204</v>
       </c>
       <c r="C32" t="n">
-        <v>909.3402517487041</v>
+        <v>1339.728190922505</v>
       </c>
       <c r="D32" t="n">
-        <v>486.0476309337044</v>
+        <v>1339.728190922505</v>
       </c>
       <c r="E32" t="n">
-        <v>60.07069108156194</v>
+        <v>913.7512510703622</v>
       </c>
       <c r="F32" t="n">
-        <v>60.07069108156194</v>
+        <v>488.6270692597624</v>
       </c>
       <c r="G32" t="n">
-        <v>60.07069108156194</v>
+        <v>86.2951878774407</v>
       </c>
       <c r="H32" t="n">
         <v>60.07069108156194</v>
@@ -6700,25 +6700,25 @@
         <v>101.7102154067076</v>
       </c>
       <c r="J32" t="n">
-        <v>239.551332392876</v>
+        <v>631.2805511005022</v>
       </c>
       <c r="K32" t="n">
-        <v>454.3844443466718</v>
+        <v>846.1136630542981</v>
       </c>
       <c r="L32" t="n">
-        <v>726.9004528705036</v>
+        <v>1118.62967157813</v>
       </c>
       <c r="M32" t="n">
-        <v>1035.273304151321</v>
+        <v>1427.002522858947</v>
       </c>
       <c r="N32" t="n">
-        <v>1778.64810628565</v>
+        <v>1741.114913128938</v>
       </c>
       <c r="O32" t="n">
-        <v>2492.274503919738</v>
+        <v>2035.555356129462</v>
       </c>
       <c r="P32" t="n">
-        <v>2737.9661972607</v>
+        <v>2281.247049470424</v>
       </c>
       <c r="Q32" t="n">
         <v>2914.642355556173</v>
@@ -6727,25 +6727,25 @@
         <v>3003.534554078097</v>
       </c>
       <c r="S32" t="n">
-        <v>2980.303581525958</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="T32" t="n">
-        <v>2768.164445521667</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="U32" t="n">
-        <v>2509.970110600338</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="V32" t="n">
-        <v>2152.480695726587</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="W32" t="n">
-        <v>1756.089346026934</v>
+        <v>3003.534554078097</v>
       </c>
       <c r="X32" t="n">
-        <v>1756.089346026934</v>
+        <v>2591.814555245844</v>
       </c>
       <c r="Y32" t="n">
-        <v>1756.089346026934</v>
+        <v>2186.477285200735</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>60.07069108156194</v>
       </c>
       <c r="I33" t="n">
-        <v>80.29966308312362</v>
+        <v>103.7569689275355</v>
       </c>
       <c r="J33" t="n">
-        <v>159.3389879233877</v>
+        <v>316.3256816434197</v>
       </c>
       <c r="K33" t="n">
-        <v>307.1299422916359</v>
+        <v>464.1166360116679</v>
       </c>
       <c r="L33" t="n">
-        <v>513.3805319140356</v>
+        <v>670.3672256340677</v>
       </c>
       <c r="M33" t="n">
-        <v>757.210732869537</v>
+        <v>914.1974265895691</v>
       </c>
       <c r="N33" t="n">
-        <v>1009.835798503732</v>
+        <v>1166.822492223765</v>
       </c>
       <c r="O33" t="n">
-        <v>1237.327662526591</v>
+        <v>1394.314356246624</v>
       </c>
       <c r="P33" t="n">
         <v>1573.755009897445</v>
@@ -6837,19 +6837,19 @@
         <v>1107.270461306219</v>
       </c>
       <c r="C34" t="n">
-        <v>935.2978981851351</v>
+        <v>935.2978981851353</v>
       </c>
       <c r="D34" t="n">
-        <v>771.9811253119058</v>
+        <v>771.9811253119059</v>
       </c>
       <c r="E34" t="n">
-        <v>605.7729194647593</v>
+        <v>605.7729194647594</v>
       </c>
       <c r="F34" t="n">
         <v>433.9111452393198</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5545278431409</v>
+        <v>268.554527843141</v>
       </c>
       <c r="H34" t="n">
         <v>132.7632098856423</v>
@@ -6861,22 +6861,22 @@
         <v>179.9501949187404</v>
       </c>
       <c r="K34" t="n">
-        <v>397.2373026266571</v>
+        <v>509.0007335470286</v>
       </c>
       <c r="L34" t="n">
-        <v>883.12068640987</v>
+        <v>994.8841173302415</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.632225509645</v>
+        <v>1524.395656430017</v>
       </c>
       <c r="N34" t="n">
-        <v>1925.160403493045</v>
+        <v>2036.923834413417</v>
       </c>
       <c r="O34" t="n">
-        <v>2405.316750564379</v>
+        <v>2517.08018148475</v>
       </c>
       <c r="P34" t="n">
-        <v>2802.642500785833</v>
+        <v>2914.405931706204</v>
       </c>
       <c r="Q34" t="n">
         <v>3003.534554078097</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1262.902544357267</v>
+        <v>1019.219303682357</v>
       </c>
       <c r="C35" t="n">
-        <v>1262.902544357267</v>
+        <v>1019.219303682357</v>
       </c>
       <c r="D35" t="n">
-        <v>839.6099235422671</v>
+        <v>1019.219303682357</v>
       </c>
       <c r="E35" t="n">
-        <v>413.6329836901247</v>
+        <v>593.2423638302146</v>
       </c>
       <c r="F35" t="n">
-        <v>42.75541829589049</v>
+        <v>168.1181820196148</v>
       </c>
       <c r="G35" t="n">
-        <v>42.75541829589049</v>
+        <v>168.1181820196148</v>
       </c>
       <c r="H35" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I35" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J35" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072048</v>
       </c>
       <c r="K35" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610006</v>
       </c>
       <c r="L35" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848325</v>
       </c>
       <c r="M35" t="n">
         <v>1017.95803136565</v>
       </c>
       <c r="N35" t="n">
-        <v>1332.070421635642</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O35" t="n">
         <v>1626.510864636165</v>
       </c>
       <c r="P35" t="n">
-        <v>1872.202557977127</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q35" t="n">
-        <v>2048.878716272601</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R35" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S35" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T35" t="n">
-        <v>2079.14225834845</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U35" t="n">
-        <v>2079.14225834845</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V35" t="n">
-        <v>2079.14225834845</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="W35" t="n">
-        <v>1682.750908648797</v>
+        <v>1424.556573727467</v>
       </c>
       <c r="X35" t="n">
-        <v>1682.750908648797</v>
+        <v>1424.556573727467</v>
       </c>
       <c r="Y35" t="n">
-        <v>1682.750908648797</v>
+        <v>1019.219303682357</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H36" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I36" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J36" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K36" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L36" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M36" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N36" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O36" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P36" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q36" t="n">
         <v>1668.279192602594</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>281.6561429471172</v>
+        <v>523.2182894146169</v>
       </c>
       <c r="C37" t="n">
-        <v>281.6561429471172</v>
+        <v>351.2457262935329</v>
       </c>
       <c r="D37" t="n">
-        <v>281.6561429471172</v>
+        <v>351.2457262935329</v>
       </c>
       <c r="E37" t="n">
-        <v>115.4479370999708</v>
+        <v>351.2457262935329</v>
       </c>
       <c r="F37" t="n">
-        <v>115.4479370999708</v>
+        <v>179.3839520680934</v>
       </c>
       <c r="G37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H37" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I37" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J37" t="n">
-        <v>84.71320548484809</v>
+        <v>84.71320548484807</v>
       </c>
       <c r="K37" t="n">
         <v>166.4811349991142</v>
       </c>
       <c r="L37" t="n">
-        <v>415.8032076563079</v>
+        <v>275.9756251911622</v>
       </c>
       <c r="M37" t="n">
-        <v>944.9015090679527</v>
+        <v>805.0739266028068</v>
       </c>
       <c r="N37" t="n">
-        <v>1059.396764209473</v>
+        <v>1317.602104586207</v>
       </c>
       <c r="O37" t="n">
-        <v>1539.553111280806</v>
+        <v>1797.75845165754</v>
       </c>
       <c r="P37" t="n">
-        <v>1936.87886150226</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q37" t="n">
-        <v>2137.770914794524</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R37" t="n">
-        <v>2131.215415329223</v>
+        <v>2131.215415329222</v>
       </c>
       <c r="S37" t="n">
-        <v>1976.771053098197</v>
+        <v>1976.771053098196</v>
       </c>
       <c r="T37" t="n">
-        <v>1737.278665192341</v>
+        <v>1737.27866519234</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.143326818623</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="V37" t="n">
-        <v>1175.431859426652</v>
+        <v>1457.143326818622</v>
       </c>
       <c r="W37" t="n">
-        <v>900.5794555991652</v>
+        <v>1182.290922991135</v>
       </c>
       <c r="X37" t="n">
-        <v>658.0155590449702</v>
+        <v>939.7270264369405</v>
       </c>
       <c r="Y37" t="n">
-        <v>431.6727907347123</v>
+        <v>713.3842581266825</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1312.585280457885</v>
+        <v>599.3709393908269</v>
       </c>
       <c r="C38" t="n">
-        <v>885.6845504711853</v>
+        <v>599.3709393908269</v>
       </c>
       <c r="D38" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="E38" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="F38" t="n">
-        <v>722.3996354988195</v>
+        <v>445.0872996782122</v>
       </c>
       <c r="G38" t="n">
-        <v>320.0677541164978</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H38" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I38" t="n">
-        <v>84.39494262103619</v>
+        <v>84.39494262103618</v>
       </c>
       <c r="J38" t="n">
-        <v>222.2360596072046</v>
+        <v>222.2360596072045</v>
       </c>
       <c r="K38" t="n">
-        <v>437.069171561002</v>
+        <v>437.0691715610004</v>
       </c>
       <c r="L38" t="n">
-        <v>709.5851800848338</v>
+        <v>709.5851800848322</v>
       </c>
       <c r="M38" t="n">
-        <v>1017.958031365651</v>
+        <v>1017.958031365649</v>
       </c>
       <c r="N38" t="n">
-        <v>1332.070421635642</v>
+        <v>1332.070421635641</v>
       </c>
       <c r="O38" t="n">
-        <v>1626.510864636166</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P38" t="n">
-        <v>1872.202557977128</v>
+        <v>1872.202557977126</v>
       </c>
       <c r="Q38" t="n">
-        <v>2048.878716272601</v>
+        <v>2048.8787162726</v>
       </c>
       <c r="R38" t="n">
-        <v>2137.770914794525</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S38" t="n">
-        <v>2137.770914794525</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="T38" t="n">
-        <v>2137.770914794525</v>
+        <v>2079.142258348449</v>
       </c>
       <c r="U38" t="n">
-        <v>2137.770914794525</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="V38" t="n">
-        <v>2137.770914794525</v>
+        <v>1820.94792342712</v>
       </c>
       <c r="W38" t="n">
-        <v>2137.770914794525</v>
+        <v>1424.556573727467</v>
       </c>
       <c r="X38" t="n">
-        <v>2137.770914794525</v>
+        <v>1424.556573727467</v>
       </c>
       <c r="Y38" t="n">
-        <v>1732.433644749415</v>
+        <v>1019.219303682357</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>178.739380841672</v>
       </c>
       <c r="G39" t="n">
-        <v>85.75954558772931</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H39" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I39" t="n">
-        <v>62.98439029745217</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J39" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K39" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L39" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M39" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N39" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O39" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P39" t="n">
-        <v>1661.89523739668</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q39" t="n">
-        <v>1773.7346928875</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R39" t="n">
         <v>1815.649874842555</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>523.2182894146183</v>
+        <v>248.0623214879474</v>
       </c>
       <c r="C40" t="n">
-        <v>523.2182894146183</v>
+        <v>76.08975836686338</v>
       </c>
       <c r="D40" t="n">
-        <v>523.2182894146183</v>
+        <v>76.08975836686338</v>
       </c>
       <c r="E40" t="n">
-        <v>379.9738099175088</v>
+        <v>76.08975836686338</v>
       </c>
       <c r="F40" t="n">
-        <v>208.1120356920692</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="G40" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="H40" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="I40" t="n">
-        <v>42.75541829589049</v>
+        <v>42.75541829589047</v>
       </c>
       <c r="J40" t="n">
-        <v>84.71320548484809</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K40" t="n">
-        <v>221.0319991956875</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L40" t="n">
-        <v>330.5264893877355</v>
+        <v>977.5688445445701</v>
       </c>
       <c r="M40" t="n">
-        <v>859.6247907993804</v>
+        <v>1506.667145956215</v>
       </c>
       <c r="N40" t="n">
-        <v>1372.152968782781</v>
+        <v>1621.162401097735</v>
       </c>
       <c r="O40" t="n">
-        <v>1852.309315854114</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P40" t="n">
-        <v>1936.878861502261</v>
+        <v>2088.252358880158</v>
       </c>
       <c r="Q40" t="n">
-        <v>2137.770914794525</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="R40" t="n">
-        <v>2131.215415329223</v>
+        <v>2137.770914794523</v>
       </c>
       <c r="S40" t="n">
-        <v>1976.771053098197</v>
+        <v>1983.326552563498</v>
       </c>
       <c r="T40" t="n">
-        <v>1737.278665192342</v>
+        <v>1743.834164657642</v>
       </c>
       <c r="U40" t="n">
-        <v>1457.143326818624</v>
+        <v>1463.698826283924</v>
       </c>
       <c r="V40" t="n">
-        <v>1457.143326818624</v>
+        <v>1181.987358891953</v>
       </c>
       <c r="W40" t="n">
-        <v>1182.290922991137</v>
+        <v>907.1349550644659</v>
       </c>
       <c r="X40" t="n">
-        <v>939.7270264369419</v>
+        <v>664.571058510271</v>
       </c>
       <c r="Y40" t="n">
-        <v>713.3842581266839</v>
+        <v>438.228290200013</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>701.4023589385015</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="C41" t="n">
-        <v>467.8796001064903</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="D41" t="n">
-        <v>467.8796001064903</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="E41" t="n">
-        <v>467.8796001064903</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="F41" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="G41" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H41" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I41" t="n">
-        <v>84.39494262103631</v>
+        <v>84.3949426210369</v>
       </c>
       <c r="J41" t="n">
-        <v>222.2360596072047</v>
+        <v>222.2360596072053</v>
       </c>
       <c r="K41" t="n">
-        <v>437.0691715610005</v>
+        <v>437.0691715610011</v>
       </c>
       <c r="L41" t="n">
-        <v>709.5851800848322</v>
+        <v>709.5851800848329</v>
       </c>
       <c r="M41" t="n">
-        <v>1017.958031365649</v>
+        <v>1017.95803136565</v>
       </c>
       <c r="N41" t="n">
         <v>1332.070421635641</v>
@@ -7429,34 +7429,34 @@
         <v>1626.510864636165</v>
       </c>
       <c r="P41" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q41" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R41" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S41" t="n">
-        <v>2079.142258348449</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T41" t="n">
         <v>1867.003122344158</v>
       </c>
       <c r="U41" t="n">
-        <v>1867.003122344158</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V41" t="n">
-        <v>1509.513707470407</v>
+        <v>1256.204036872906</v>
       </c>
       <c r="W41" t="n">
-        <v>1113.122357770754</v>
+        <v>859.8126871732529</v>
       </c>
       <c r="X41" t="n">
-        <v>701.4023589385015</v>
+        <v>448.0926883410002</v>
       </c>
       <c r="Y41" t="n">
-        <v>701.4023589385015</v>
+        <v>42.75541829589048</v>
       </c>
     </row>
     <row r="42">
@@ -7484,31 +7484,31 @@
         <v>85.75954558772929</v>
       </c>
       <c r="H42" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I42" t="n">
-        <v>62.98439029745215</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J42" t="n">
-        <v>142.0237151377162</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K42" t="n">
-        <v>289.8146695059644</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L42" t="n">
-        <v>496.0652591283642</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M42" t="n">
-        <v>739.8954600838656</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N42" t="n">
-        <v>992.5205257180611</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O42" t="n">
-        <v>1220.01238974092</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P42" t="n">
-        <v>1399.453043391742</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q42" t="n">
         <v>1668.279192602594</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>749.5610577248749</v>
+        <v>1089.955188520548</v>
       </c>
       <c r="C43" t="n">
-        <v>577.5884946037909</v>
+        <v>917.9826253994637</v>
       </c>
       <c r="D43" t="n">
-        <v>414.2717217305616</v>
+        <v>754.6658525262344</v>
       </c>
       <c r="E43" t="n">
-        <v>414.2717217305616</v>
+        <v>588.4576466790879</v>
       </c>
       <c r="F43" t="n">
-        <v>242.409947505122</v>
+        <v>416.5958724536483</v>
       </c>
       <c r="G43" t="n">
-        <v>115.4479370999708</v>
+        <v>251.2392550574696</v>
       </c>
       <c r="H43" t="n">
         <v>115.4479370999708</v>
       </c>
       <c r="I43" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J43" t="n">
-        <v>84.71320548484807</v>
+        <v>84.71320548484809</v>
       </c>
       <c r="K43" t="n">
-        <v>413.7637441131362</v>
+        <v>166.4811349991142</v>
       </c>
       <c r="L43" t="n">
-        <v>523.2582343051843</v>
+        <v>481.8999867656338</v>
       </c>
       <c r="M43" t="n">
-        <v>1052.356535716829</v>
+        <v>1010.998288177278</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.884713700229</v>
+        <v>1523.526466160679</v>
       </c>
       <c r="O43" t="n">
-        <v>1852.309315854113</v>
+        <v>2003.682813232012</v>
       </c>
       <c r="P43" t="n">
-        <v>1936.878861502259</v>
+        <v>2088.252358880159</v>
       </c>
       <c r="Q43" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R43" t="n">
-        <v>2131.215415329222</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S43" t="n">
-        <v>1976.771053098196</v>
+        <v>1988.520210002922</v>
       </c>
       <c r="T43" t="n">
-        <v>1737.27866519234</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="U43" t="n">
-        <v>1457.143326818622</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="V43" t="n">
-        <v>1457.143326818622</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="W43" t="n">
-        <v>1182.290922991135</v>
+        <v>1749.027822097066</v>
       </c>
       <c r="X43" t="n">
-        <v>939.7270264369405</v>
+        <v>1506.463925542871</v>
       </c>
       <c r="Y43" t="n">
-        <v>939.7270264369405</v>
+        <v>1280.121157232613</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>870.211481488812</v>
+        <v>395.3601688458135</v>
       </c>
       <c r="C44" t="n">
-        <v>870.211481488812</v>
+        <v>395.3601688458135</v>
       </c>
       <c r="D44" t="n">
-        <v>870.211481488812</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="E44" t="n">
-        <v>870.211481488812</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="F44" t="n">
-        <v>445.0872996782122</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="G44" t="n">
-        <v>42.75541829589047</v>
+        <v>320.0677541164978</v>
       </c>
       <c r="H44" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I44" t="n">
-        <v>84.39494262103618</v>
+        <v>84.39494262103631</v>
       </c>
       <c r="J44" t="n">
-        <v>222.2360596072045</v>
+        <v>222.2360596072044</v>
       </c>
       <c r="K44" t="n">
-        <v>437.0691715610004</v>
+        <v>437.0691715610002</v>
       </c>
       <c r="L44" t="n">
-        <v>709.5851800848325</v>
+        <v>709.585180084832</v>
       </c>
       <c r="M44" t="n">
         <v>1017.95803136565</v>
@@ -7663,37 +7663,37 @@
         <v>1332.070421635641</v>
       </c>
       <c r="O44" t="n">
-        <v>1626.510864636165</v>
+        <v>1626.510864636164</v>
       </c>
       <c r="P44" t="n">
-        <v>1872.202557977126</v>
+        <v>1872.202557977127</v>
       </c>
       <c r="Q44" t="n">
         <v>2048.8787162726</v>
       </c>
       <c r="R44" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="S44" t="n">
-        <v>2091.788465525105</v>
+        <v>2079.14225834845</v>
       </c>
       <c r="T44" t="n">
-        <v>2091.788465525105</v>
+        <v>1867.003122344158</v>
       </c>
       <c r="U44" t="n">
-        <v>2091.788465525105</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.788465525105</v>
+        <v>1608.808787422829</v>
       </c>
       <c r="W44" t="n">
-        <v>1695.397115825452</v>
+        <v>1212.417437723176</v>
       </c>
       <c r="X44" t="n">
-        <v>1695.397115825452</v>
+        <v>800.6974388909232</v>
       </c>
       <c r="Y44" t="n">
-        <v>1290.059845780342</v>
+        <v>395.3601688458135</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>920.5540468050089</v>
+        <v>598.4330068530409</v>
       </c>
       <c r="C45" t="n">
-        <v>803.0481433225136</v>
+        <v>480.9271033705456</v>
       </c>
       <c r="D45" t="n">
-        <v>699.2081848377986</v>
+        <v>377.0871448858306</v>
       </c>
       <c r="E45" t="n">
-        <v>594.5062511107359</v>
+        <v>272.3852111587678</v>
       </c>
       <c r="F45" t="n">
-        <v>500.8604207936401</v>
+        <v>178.739380841672</v>
       </c>
       <c r="G45" t="n">
-        <v>407.8805855396973</v>
+        <v>85.75954558772929</v>
       </c>
       <c r="H45" t="n">
-        <v>364.8764582478585</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I45" t="n">
-        <v>385.1054302494202</v>
+        <v>86.44169614186399</v>
       </c>
       <c r="J45" t="n">
-        <v>464.1447550896842</v>
+        <v>299.0104088577483</v>
       </c>
       <c r="K45" t="n">
-        <v>611.9357094579325</v>
+        <v>446.8013632259966</v>
       </c>
       <c r="L45" t="n">
-        <v>818.1862990803322</v>
+        <v>653.0519528483964</v>
       </c>
       <c r="M45" t="n">
-        <v>1062.016500035834</v>
+        <v>896.8821538038977</v>
       </c>
       <c r="N45" t="n">
-        <v>1314.641565670029</v>
+        <v>1149.507219438093</v>
       </c>
       <c r="O45" t="n">
-        <v>1542.133429692888</v>
+        <v>1376.999083460952</v>
       </c>
       <c r="P45" t="n">
-        <v>1721.57408334371</v>
+        <v>1556.439737111774</v>
       </c>
       <c r="Q45" t="n">
-        <v>2095.855732839468</v>
+        <v>1668.279192602594</v>
       </c>
       <c r="R45" t="n">
-        <v>2137.770914794523</v>
+        <v>1815.649874842555</v>
       </c>
       <c r="S45" t="n">
-        <v>2076.394567347005</v>
+        <v>1754.273527395037</v>
       </c>
       <c r="T45" t="n">
-        <v>1938.843349494019</v>
+        <v>1616.722309542051</v>
       </c>
       <c r="U45" t="n">
-        <v>1754.145807132633</v>
+        <v>1432.024767180665</v>
       </c>
       <c r="V45" t="n">
-        <v>1549.172668271899</v>
+        <v>1227.051628319931</v>
       </c>
       <c r="W45" t="n">
-        <v>1352.651291105116</v>
+        <v>1030.530251153148</v>
       </c>
       <c r="X45" t="n">
-        <v>1189.173944871779</v>
+        <v>867.0529049198112</v>
       </c>
       <c r="Y45" t="n">
-        <v>1049.481056225072</v>
+        <v>727.3600162731036</v>
       </c>
     </row>
     <row r="46">
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.5560279306989</v>
+        <v>431.6727907347118</v>
       </c>
       <c r="C46" t="n">
-        <v>414.5560279306989</v>
+        <v>431.6727907347118</v>
       </c>
       <c r="D46" t="n">
-        <v>251.2392550574696</v>
+        <v>268.3560178614825</v>
       </c>
       <c r="E46" t="n">
-        <v>251.2392550574696</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="F46" t="n">
-        <v>251.2392550574696</v>
+        <v>208.1120356920692</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2392550574696</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="H46" t="n">
-        <v>115.4479370999708</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="I46" t="n">
-        <v>42.75541829589047</v>
+        <v>42.75541829589048</v>
       </c>
       <c r="J46" t="n">
-        <v>84.71320548484807</v>
+        <v>162.634922133069</v>
       </c>
       <c r="K46" t="n">
-        <v>166.4811349991142</v>
+        <v>491.6854607613571</v>
       </c>
       <c r="L46" t="n">
-        <v>481.8999867656335</v>
+        <v>708.2288136909382</v>
       </c>
       <c r="M46" t="n">
-        <v>1010.998288177278</v>
+        <v>1237.327115102583</v>
       </c>
       <c r="N46" t="n">
-        <v>1523.526466160678</v>
+        <v>1749.855293085983</v>
       </c>
       <c r="O46" t="n">
-        <v>2003.682813232012</v>
+        <v>1852.309315854113</v>
       </c>
       <c r="P46" t="n">
-        <v>2088.252358880158</v>
+        <v>1936.87886150226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2137.770914794523</v>
+        <v>2137.770914794524</v>
       </c>
       <c r="R46" t="n">
         <v>2131.215415329222</v>
@@ -7836,22 +7836,22 @@
         <v>1976.771053098196</v>
       </c>
       <c r="T46" t="n">
-        <v>1910.327871100394</v>
+        <v>1737.278665192341</v>
       </c>
       <c r="U46" t="n">
-        <v>1630.192532726675</v>
+        <v>1457.143326818623</v>
       </c>
       <c r="V46" t="n">
-        <v>1348.481065334704</v>
+        <v>1175.431859426652</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.628661507217</v>
+        <v>900.5794555991647</v>
       </c>
       <c r="X46" t="n">
-        <v>831.0647649530224</v>
+        <v>658.0155590449698</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.7219966427645</v>
+        <v>431.6727907347118</v>
       </c>
     </row>
   </sheetData>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>265.0931252575133</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>249.7804132464869</v>
@@ -8856,10 +8856,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.29519472191</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N13" t="n">
-        <v>361.6041474892601</v>
+        <v>282.895342794088</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>417.29519472191</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>282.895342794088</v>
       </c>
       <c r="O16" t="n">
-        <v>108.1301643813461</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>265.0931252575132</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>417.29519472191</v>
+        <v>298.137080099958</v>
       </c>
       <c r="N19" t="n">
-        <v>62.53117759285239</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>99.63557070752626</v>
+        <v>417.29519472191</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>381.5174992961649</v>
+        <v>282.8953427940875</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>249.7730798851979</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9646,22 +9646,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>354.3083411156918</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>453.4690496301064</v>
       </c>
       <c r="P23" t="n">
-        <v>502.7102109023911</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>134.8781695713338</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9798,7 +9798,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
-        <v>136.8880587814653</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891771</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.3616343834517</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>533.8804951318516</v>
       </c>
       <c r="L26" t="n">
-        <v>475.6149430409063</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>381.4036089771763</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K27" t="n">
-        <v>265.0931252575131</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>304.8202520630811</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>360.2014738739056</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>360.2014738739065</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>496.8170781441769</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10278,13 +10278,13 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
-        <v>304.8202520630811</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>381.5174992961649</v>
+        <v>268.6251448311431</v>
       </c>
       <c r="P31" t="n">
         <v>315.9153581548562</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10360,16 +10360,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>433.5983958225634</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>423.4201561955194</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>461.3324725154301</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>134.8781695713335</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>158.5724178990224</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>136.8880587814653</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>40.01016813891722</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>106.5207073584907</v>
@@ -10749,22 +10749,22 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>141.239982288026</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>417.2951947219104</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>208.0044056307792</v>
       </c>
       <c r="Q37" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>265.0931252575132</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>55.10188302684176</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>417.2951947219105</v>
+        <v>417.2951947219101</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>381.5174992961649</v>
+        <v>282.8953427940877</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.5724178990225</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>106.5207073584907</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>208.0044056307794</v>
       </c>
       <c r="M43" t="n">
-        <v>417.2951947219101</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>186.8389690765187</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>134.8781695713336</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>265.0931252575133</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>208.0044056307791</v>
+        <v>108.1301643813465</v>
       </c>
       <c r="M46" t="n">
-        <v>417.2951947219102</v>
+        <v>417.2951947219103</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>398.3085625684984</v>
+        <v>89.35278347427499</v>
       </c>
       <c r="H11" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>210.0177446442483</v>
       </c>
       <c r="U11" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>52.01826786449777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>150.7881160430329</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>76.68821116750615</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H14" t="n">
-        <v>101.0612909314607</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T14" t="n">
         <v>210.0177446442483</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.8423339743615</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>13.94829684732824</v>
       </c>
       <c r="H16" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>176.8701750569962</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>25.86606685476517</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.96328690465316</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H17" t="n">
         <v>274.5392124624013</v>
@@ -23785,19 +23785,19 @@
         <v>58.04236988161366</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>210.0177446442483</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -23898,19 +23898,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>137.9253905823729</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>163.7030512222169</v>
       </c>
       <c r="H19" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>3.145164233826677</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,10 +24022,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
@@ -24037,7 +24037,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>156.3112027417559</v>
+        <v>64.31939408854441</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>143.6321042835702</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7030512222169</v>
+        <v>49.76772955927852</v>
       </c>
       <c r="H22" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I22" t="n">
-        <v>71.96559361603954</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.8999186087154</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24211,19 +24211,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>314.0852888967026</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>84.22632906028605</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H23" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24268,10 +24268,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>198.5501081680649</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>143.009813359613</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0177446442483</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U26" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
         <v>392.4274362026566</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>265.8716818159307</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>172.4047205064719</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3085625684984</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.5392124624013</v>
+        <v>248.5769606344813</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.04370705499643</v>
+        <v>58.04236988161366</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.0177446442482</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.612391572116</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>53.70415025220194</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3085625684984</v>
       </c>
       <c r="H35" t="n">
-        <v>274.5392124624013</v>
+        <v>150.4300763759142</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25210,7 +25210,7 @@
         <v>210.0177446442482</v>
       </c>
       <c r="U35" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>353.914520725013</v>
@@ -25222,7 +25222,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>39.7478277152259</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.7030512222169</v>
+        <v>28.44080278773612</v>
       </c>
       <c r="H37" t="n">
         <v>134.4334047779237</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>257.4076287842076</v>
+        <v>266.3188912913611</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.5392124624013</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.04236988161366</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>210.0177446442482</v>
       </c>
       <c r="U38" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>22.73408908653656</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>137.142159812922</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7030512222169</v>
       </c>
       <c r="H40" t="n">
         <v>134.4334047779237</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>191.4441914431418</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,7 +25639,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>398.3085625684984</v>
@@ -25684,10 +25684,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>4.835817680589287</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>38.01066092111729</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.4334047779237</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.489944470648574</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>5.141720865029299</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3339849899809</v>
       </c>
       <c r="V43" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>344.5202040248272</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.3085625684984</v>
       </c>
       <c r="H44" t="n">
-        <v>274.5392124624013</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>12.51974510488905</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>210.0177446442482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.612391572116</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>104.9045814409558</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7030512222169</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.4334047779237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>71.96559361603954</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>171.3187138489727</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>328466.9425552849</v>
+        <v>328466.942555285</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448959.0579354365</v>
+        <v>448959.0579354366</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448959.0579354365</v>
+        <v>448959.0579354367</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>328466.9425552849</v>
+        <v>328466.942555285</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>328466.9425552851</v>
+        <v>328466.9425552849</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>328466.9425552849</v>
+        <v>328466.942555285</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>328466.942555285</v>
+        <v>328466.9425552849</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>487693.6297007381</v>
+        <v>487693.6297007378</v>
       </c>
       <c r="C2" t="n">
         <v>487693.6297007379</v>
@@ -26322,25 +26322,25 @@
         <v>487693.6297007379</v>
       </c>
       <c r="E2" t="n">
-        <v>290007.5736252776</v>
+        <v>290007.5736252777</v>
       </c>
       <c r="F2" t="n">
-        <v>290007.5736252776</v>
+        <v>290007.5736252777</v>
       </c>
       <c r="G2" t="n">
         <v>290007.5736252777</v>
       </c>
       <c r="H2" t="n">
-        <v>290007.5736252778</v>
+        <v>290007.5736252777</v>
       </c>
       <c r="I2" t="n">
-        <v>363974.793147545</v>
+        <v>363974.7931475451</v>
       </c>
       <c r="J2" t="n">
         <v>363974.793147545</v>
       </c>
       <c r="K2" t="n">
-        <v>363974.7931475449</v>
+        <v>363974.793147545</v>
       </c>
       <c r="L2" t="n">
         <v>363974.7931475449</v>
@@ -26355,7 +26355,7 @@
         <v>290007.5736252777</v>
       </c>
       <c r="P2" t="n">
-        <v>290007.5736252776</v>
+        <v>290007.5736252778</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>556689.6559222535</v>
+        <v>556689.6559222536</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>57556.18318048175</v>
+        <v>57556.18318048184</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>79247.32527160765</v>
+        <v>79247.32527160755</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,34 +26426,34 @@
         <v>323720.8540144446</v>
       </c>
       <c r="E4" t="n">
+        <v>21842.84887867284</v>
+      </c>
+      <c r="F4" t="n">
+        <v>21842.84887867285</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21842.84887867285</v>
+      </c>
+      <c r="H4" t="n">
         <v>21842.84887867283</v>
       </c>
-      <c r="F4" t="n">
-        <v>21842.84887867284</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21842.84887867283</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21842.84887867285</v>
-      </c>
       <c r="I4" t="n">
-        <v>64149.91250646632</v>
+        <v>64149.91250646635</v>
       </c>
       <c r="J4" t="n">
         <v>64149.91250646629</v>
       </c>
       <c r="K4" t="n">
-        <v>64149.91250646633</v>
+        <v>64149.91250646629</v>
       </c>
       <c r="L4" t="n">
         <v>64149.91250646632</v>
       </c>
       <c r="M4" t="n">
-        <v>21842.8488786729</v>
+        <v>21842.84887867284</v>
       </c>
       <c r="N4" t="n">
-        <v>21842.84887867292</v>
+        <v>21842.84887867284</v>
       </c>
       <c r="O4" t="n">
         <v>21842.84887867284</v>
@@ -26502,16 +26502,16 @@
         <v>56429.32173361156</v>
       </c>
       <c r="M5" t="n">
-        <v>43269.71441650126</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="N5" t="n">
-        <v>43269.71441650127</v>
+        <v>43269.71441650124</v>
       </c>
       <c r="O5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
       <c r="P5" t="n">
-        <v>43269.71441650124</v>
+        <v>43269.71441650125</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130345.1756862935</v>
+        <v>130323.4620447969</v>
       </c>
       <c r="C6" t="n">
-        <v>130345.1756862933</v>
+        <v>130323.4620447969</v>
       </c>
       <c r="D6" t="n">
-        <v>130345.1756862934</v>
+        <v>130323.462044797</v>
       </c>
       <c r="E6" t="n">
-        <v>-331794.64559215</v>
+        <v>-332397.7888103389</v>
       </c>
       <c r="F6" t="n">
-        <v>224895.0103301036</v>
+        <v>224291.8671119147</v>
       </c>
       <c r="G6" t="n">
-        <v>224895.0103301036</v>
+        <v>224291.8671119148</v>
       </c>
       <c r="H6" t="n">
-        <v>224895.0103301037</v>
+        <v>224291.8671119148</v>
       </c>
       <c r="I6" t="n">
-        <v>185839.3757269853</v>
+        <v>185453.7831544502</v>
       </c>
       <c r="J6" t="n">
-        <v>243395.5589074671</v>
+        <v>243009.966334932</v>
       </c>
       <c r="K6" t="n">
-        <v>243395.558907467</v>
+        <v>243009.966334932</v>
       </c>
       <c r="L6" t="n">
-        <v>243395.558907467</v>
+        <v>243009.9663349319</v>
       </c>
       <c r="M6" t="n">
-        <v>145647.6850584959</v>
+        <v>145044.5418403072</v>
       </c>
       <c r="N6" t="n">
-        <v>224895.0103301037</v>
+        <v>224291.8671119149</v>
       </c>
       <c r="O6" t="n">
-        <v>224895.0103301036</v>
+        <v>224291.8671119147</v>
       </c>
       <c r="P6" t="n">
-        <v>224895.0103301035</v>
+        <v>224291.8671119149</v>
       </c>
     </row>
   </sheetData>
@@ -26798,19 +26798,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>534.442728698631</v>
+      </c>
+      <c r="F4" t="n">
+        <v>534.442728698631</v>
+      </c>
+      <c r="G4" t="n">
+        <v>534.442728698631</v>
+      </c>
+      <c r="H4" t="n">
         <v>534.4427286986307</v>
       </c>
-      <c r="F4" t="n">
-        <v>534.4427286986307</v>
-      </c>
-      <c r="G4" t="n">
-        <v>534.4427286986307</v>
-      </c>
-      <c r="H4" t="n">
-        <v>534.442728698631</v>
-      </c>
       <c r="I4" t="n">
-        <v>750.8836385195242</v>
+        <v>750.8836385195243</v>
       </c>
       <c r="J4" t="n">
         <v>750.8836385195242</v>
@@ -26822,16 +26822,16 @@
         <v>750.8836385195242</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986311</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N4" t="n">
-        <v>534.4427286986312</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="O4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="P4" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
     </row>
   </sheetData>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>216.4409098208932</v>
+        <v>216.4409098208936</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>318.0018188777373</v>
+        <v>318.0018188777369</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>534.4427286986306</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32229,10 +32229,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H17" t="n">
-        <v>20.35048227830423</v>
+        <v>20.35048227830422</v>
       </c>
       <c r="I17" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491875</v>
       </c>
       <c r="J17" t="n">
         <v>168.6534109867667</v>
@@ -32247,13 +32247,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N17" t="n">
-        <v>354.5648655314069</v>
+        <v>354.5648655314068</v>
       </c>
       <c r="O17" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P17" t="n">
-        <v>285.7487894273646</v>
+        <v>285.7487894273645</v>
       </c>
       <c r="Q17" t="n">
         <v>214.5854405596218</v>
@@ -32265,10 +32265,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T17" t="n">
-        <v>8.698570601564924</v>
+        <v>8.698570601564922</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1589687374357952</v>
+        <v>0.1589687374357951</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32335,10 +32335,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.7161852494025</v>
+        <v>135.7161852494024</v>
       </c>
       <c r="R18" t="n">
-        <v>66.01148702551339</v>
+        <v>66.01148702551338</v>
       </c>
       <c r="S18" t="n">
         <v>19.74842099131456</v>
@@ -32347,7 +32347,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06994718178741882</v>
+        <v>0.06994718178741881</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8913487864932274</v>
+        <v>0.8913487864932272</v>
       </c>
       <c r="H19" t="n">
-        <v>7.924901029003427</v>
+        <v>7.924901029003426</v>
       </c>
       <c r="I19" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J19" t="n">
-        <v>63.01835920507117</v>
+        <v>63.01835920507116</v>
       </c>
       <c r="K19" t="n">
         <v>103.5585226489404</v>
@@ -32414,13 +32414,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.63830611262834</v>
+        <v>74.63830611262833</v>
       </c>
       <c r="R19" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S19" t="n">
-        <v>15.53377839734106</v>
+        <v>15.53377839734105</v>
       </c>
       <c r="T19" t="n">
         <v>3.80849026956197</v>
@@ -32466,10 +32466,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H20" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I20" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J20" t="n">
         <v>168.6534109867667</v>
@@ -32484,13 +32484,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N20" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O20" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P20" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q20" t="n">
         <v>214.5854405596218</v>
@@ -32502,10 +32502,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T20" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32572,10 +32572,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R21" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S21" t="n">
         <v>19.74842099131456</v>
@@ -32584,7 +32584,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H22" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I22" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J22" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K22" t="n">
         <v>103.5585226489404</v>
@@ -32651,13 +32651,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R22" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S22" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T22" t="n">
         <v>3.80849026956197</v>
@@ -32940,10 +32940,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H26" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I26" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J26" t="n">
         <v>168.6534109867667</v>
@@ -32958,13 +32958,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N26" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O26" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P26" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q26" t="n">
         <v>214.5854405596218</v>
@@ -32976,10 +32976,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T26" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33046,10 +33046,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R27" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S27" t="n">
         <v>19.74842099131456</v>
@@ -33058,7 +33058,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H28" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I28" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J28" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K28" t="n">
         <v>103.5585226489404</v>
@@ -33125,13 +33125,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R28" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S28" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T28" t="n">
         <v>3.80849026956197</v>
@@ -33177,10 +33177,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H29" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I29" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J29" t="n">
         <v>168.6534109867667</v>
@@ -33195,13 +33195,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N29" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O29" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q29" t="n">
         <v>214.5854405596218</v>
@@ -33213,10 +33213,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T29" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33283,10 +33283,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R30" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S30" t="n">
         <v>19.74842099131456</v>
@@ -33295,7 +33295,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H31" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I31" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J31" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K31" t="n">
         <v>103.5585226489404</v>
@@ -33362,13 +33362,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R31" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S31" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T31" t="n">
         <v>3.80849026956197</v>
@@ -33414,10 +33414,10 @@
         <v>1.98710921794744</v>
       </c>
       <c r="H32" t="n">
-        <v>20.35048227830422</v>
+        <v>20.35048227830423</v>
       </c>
       <c r="I32" t="n">
-        <v>76.60802812491875</v>
+        <v>76.60802812491876</v>
       </c>
       <c r="J32" t="n">
         <v>168.6534109867667</v>
@@ -33432,13 +33432,13 @@
         <v>348.9189914659137</v>
       </c>
       <c r="N32" t="n">
-        <v>354.5648655314068</v>
+        <v>354.5648655314069</v>
       </c>
       <c r="O32" t="n">
         <v>334.805548245442</v>
       </c>
       <c r="P32" t="n">
-        <v>285.7487894273645</v>
+        <v>285.7487894273646</v>
       </c>
       <c r="Q32" t="n">
         <v>214.5854405596218</v>
@@ -33450,10 +33450,10 @@
         <v>45.28125130397733</v>
       </c>
       <c r="T32" t="n">
-        <v>8.698570601564922</v>
+        <v>8.698570601564924</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1589687374357951</v>
+        <v>0.1589687374357952</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33520,10 +33520,10 @@
         <v>203.0240267107093</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7161852494024</v>
+        <v>135.7161852494025</v>
       </c>
       <c r="R33" t="n">
-        <v>66.01148702551338</v>
+        <v>66.01148702551339</v>
       </c>
       <c r="S33" t="n">
         <v>19.74842099131456</v>
@@ -33532,7 +33532,7 @@
         <v>4.285430670842523</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06994718178741881</v>
+        <v>0.06994718178741882</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8913487864932272</v>
+        <v>0.8913487864932274</v>
       </c>
       <c r="H34" t="n">
-        <v>7.924901029003426</v>
+        <v>7.924901029003427</v>
       </c>
       <c r="I34" t="n">
         <v>26.80528896108724</v>
       </c>
       <c r="J34" t="n">
-        <v>63.01835920507116</v>
+        <v>63.01835920507117</v>
       </c>
       <c r="K34" t="n">
         <v>103.5585226489404</v>
@@ -33599,13 +33599,13 @@
         <v>107.8045841409626</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.63830611262833</v>
+        <v>74.63830611262834</v>
       </c>
       <c r="R34" t="n">
         <v>40.07828270905001</v>
       </c>
       <c r="S34" t="n">
-        <v>15.53377839734105</v>
+        <v>15.53377839734106</v>
       </c>
       <c r="T34" t="n">
         <v>3.80849026956197</v>
@@ -34128,7 +34128,7 @@
         <v>20.35048227830423</v>
       </c>
       <c r="I41" t="n">
-        <v>76.60802812491876</v>
+        <v>76.60802812491949</v>
       </c>
       <c r="J41" t="n">
         <v>168.6534109867667</v>
@@ -34374,7 +34374,7 @@
         <v>252.7677441824819</v>
       </c>
       <c r="L44" t="n">
-        <v>313.5807379112413</v>
+        <v>313.5807379112409</v>
       </c>
       <c r="M44" t="n">
         <v>348.9189914659137</v>
@@ -35497,10 +35497,10 @@
         <v>208.3339289115149</v>
       </c>
       <c r="M12" t="n">
-        <v>511.3862575357974</v>
+        <v>246.2931322782842</v>
       </c>
       <c r="N12" t="n">
-        <v>255.1768339739348</v>
+        <v>520.2699592314481</v>
       </c>
       <c r="O12" t="n">
         <v>229.7897616392515</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K13" t="n">
         <v>332.3742814427153</v>
@@ -35576,10 +35576,10 @@
         <v>490.7912967507201</v>
       </c>
       <c r="M13" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N13" t="n">
-        <v>477.2559203594825</v>
+        <v>398.5471156643104</v>
       </c>
       <c r="O13" t="n">
         <v>103.4889118870001</v>
@@ -35725,13 +35725,13 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J15" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K15" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L15" t="n">
-        <v>473.4270541690281</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M15" t="n">
         <v>246.2931322782842</v>
@@ -35810,22 +35810,22 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L16" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M16" t="n">
-        <v>534.4427286986307</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N16" t="n">
-        <v>517.7052302862629</v>
+        <v>398.5471156643104</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6190762683462</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P16" t="n">
         <v>85.42378348297615</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095524</v>
       </c>
       <c r="J17" t="n">
         <v>139.2334515011802</v>
@@ -35889,22 +35889,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L17" t="n">
-        <v>275.268695478618</v>
+        <v>275.2686954786179</v>
       </c>
       <c r="M17" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N17" t="n">
-        <v>317.2852426969609</v>
+        <v>317.2852426969608</v>
       </c>
       <c r="O17" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P17" t="n">
-        <v>248.1734276171333</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q17" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550237</v>
       </c>
       <c r="R17" t="n">
         <v>89.79009951709452</v>
@@ -35962,13 +35962,13 @@
         <v>20.4333050520825</v>
       </c>
       <c r="J18" t="n">
-        <v>79.83770185885255</v>
+        <v>344.9308271163658</v>
       </c>
       <c r="K18" t="n">
         <v>149.2837922911598</v>
       </c>
       <c r="L18" t="n">
-        <v>473.4270541690281</v>
+        <v>208.3339289115149</v>
       </c>
       <c r="M18" t="n">
         <v>246.2931322782842</v>
@@ -35977,16 +35977,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O18" t="n">
-        <v>229.7897616392516</v>
+        <v>229.7897616392515</v>
       </c>
       <c r="P18" t="n">
-        <v>181.2531855058807</v>
+        <v>181.2531855058806</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.969146960424</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R18" t="n">
-        <v>42.33856763136924</v>
+        <v>42.33856763136923</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K19" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L19" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507201</v>
       </c>
       <c r="M19" t="n">
-        <v>534.4427286986307</v>
+        <v>415.2846140766787</v>
       </c>
       <c r="N19" t="n">
-        <v>178.1829504630748</v>
+        <v>517.7052302862629</v>
       </c>
       <c r="O19" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P19" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297615</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.9212659517818</v>
+        <v>50.01874334784338</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J20" t="n">
         <v>139.2334515011802</v>
@@ -36126,22 +36126,22 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L20" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M20" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N20" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O20" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P20" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q20" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R20" t="n">
         <v>89.79009951709452</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J21" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K21" t="n">
         <v>149.2837922911598</v>
@@ -36214,16 +36214,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O21" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P21" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R21" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K22" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L22" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M22" t="n">
-        <v>216.783104684247</v>
+        <v>534.4427286986307</v>
       </c>
       <c r="N22" t="n">
         <v>115.6517728702224</v>
       </c>
       <c r="O22" t="n">
-        <v>485.006411183165</v>
+        <v>386.3842546810876</v>
       </c>
       <c r="P22" t="n">
-        <v>401.3391416378323</v>
+        <v>85.42378348297616</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>42.06012558095524</v>
       </c>
       <c r="J23" t="n">
-        <v>139.2334515011802</v>
+        <v>389.0065313863781</v>
       </c>
       <c r="K23" t="n">
         <v>217.0031433876725</v>
@@ -36366,22 +36366,22 @@
         <v>275.2686954786179</v>
       </c>
       <c r="M23" t="n">
-        <v>665.7960696821737</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N23" t="n">
         <v>317.2852426969608</v>
       </c>
       <c r="O23" t="n">
-        <v>297.4145888894179</v>
+        <v>750.8836385195243</v>
       </c>
       <c r="P23" t="n">
-        <v>750.8836385195242</v>
+        <v>248.1734276171332</v>
       </c>
       <c r="Q23" t="n">
         <v>178.4607659550237</v>
       </c>
       <c r="R23" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J24" t="n">
         <v>79.83770185885255</v>
@@ -36451,16 +36451,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O24" t="n">
-        <v>229.7897616392515</v>
+        <v>364.6679312105853</v>
       </c>
       <c r="P24" t="n">
         <v>181.2531855058806</v>
       </c>
       <c r="Q24" t="n">
-        <v>378.0622722179372</v>
+        <v>112.9691469604239</v>
       </c>
       <c r="R24" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K25" t="n">
-        <v>219.4819269776937</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L25" t="n">
         <v>490.7912967507201</v>
@@ -36536,7 +36536,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676109</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J26" t="n">
-        <v>139.2334515011802</v>
+        <v>308.5950858846319</v>
       </c>
       <c r="K26" t="n">
-        <v>217.0031433876725</v>
+        <v>750.8836385195242</v>
       </c>
       <c r="L26" t="n">
-        <v>750.8836385195242</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M26" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N26" t="n">
-        <v>698.6888516741371</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O26" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P26" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q26" t="n">
-        <v>178.4607659550237</v>
+        <v>178.4607659550238</v>
       </c>
       <c r="R26" t="n">
-        <v>89.79009951709452</v>
+        <v>243.5665220198734</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J27" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3769175486729</v>
+        <v>149.2837922911598</v>
       </c>
       <c r="L27" t="n">
         <v>208.3339289115149</v>
@@ -36688,16 +36688,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O27" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P27" t="n">
-        <v>181.2531855058806</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q27" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R27" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,13 +36758,13 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L28" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M28" t="n">
-        <v>421.9677860398018</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N28" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O28" t="n">
         <v>485.006411183165</v>
@@ -36773,7 +36773,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J29" t="n">
-        <v>139.2334515011802</v>
+        <v>499.4349253750858</v>
       </c>
       <c r="K29" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L29" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M29" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N29" t="n">
-        <v>317.2852426969608</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O29" t="n">
         <v>297.4145888894179</v>
       </c>
       <c r="P29" t="n">
-        <v>608.3749014910397</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q29" t="n">
-        <v>675.2778440992006</v>
+        <v>675.2778440992007</v>
       </c>
       <c r="R29" t="n">
         <v>89.79009951709452</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J30" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K30" t="n">
         <v>149.2837922911598</v>
@@ -36925,16 +36925,16 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O30" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P30" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q30" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R30" t="n">
-        <v>42.33856763136923</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,16 +36995,16 @@
         <v>332.3742814427153</v>
       </c>
       <c r="L31" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M31" t="n">
-        <v>421.9677860398018</v>
+        <v>534.8601405048234</v>
       </c>
       <c r="N31" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O31" t="n">
-        <v>485.006411183165</v>
+        <v>372.1140567181432</v>
       </c>
       <c r="P31" t="n">
         <v>401.3391416378323</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42.06012558095524</v>
+        <v>42.06012558095526</v>
       </c>
       <c r="J32" t="n">
-        <v>139.2334515011802</v>
+        <v>534.9195310038328</v>
       </c>
       <c r="K32" t="n">
         <v>217.0031433876725</v>
       </c>
       <c r="L32" t="n">
-        <v>275.2686954786179</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M32" t="n">
         <v>311.4877285664818</v>
       </c>
       <c r="N32" t="n">
-        <v>750.8836385195242</v>
+        <v>317.2852426969609</v>
       </c>
       <c r="O32" t="n">
-        <v>720.8347450849373</v>
+        <v>297.4145888894179</v>
       </c>
       <c r="P32" t="n">
-        <v>248.1734276171332</v>
+        <v>248.1734276171333</v>
       </c>
       <c r="Q32" t="n">
-        <v>178.4607659550237</v>
+        <v>639.7932384704538</v>
       </c>
       <c r="R32" t="n">
         <v>89.79009951709452</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J33" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301861</v>
       </c>
       <c r="K33" t="n">
         <v>149.2837922911598</v>
@@ -37162,13 +37162,13 @@
         <v>255.1768339739348</v>
       </c>
       <c r="O33" t="n">
-        <v>229.7897616392515</v>
+        <v>229.7897616392516</v>
       </c>
       <c r="P33" t="n">
-        <v>339.8256034049031</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q33" t="n">
-        <v>112.9691469604239</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R33" t="n">
         <v>148.85927498986</v>
@@ -37229,16 +37229,16 @@
         <v>121.0904079163419</v>
       </c>
       <c r="K34" t="n">
-        <v>219.4819269776937</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L34" t="n">
-        <v>490.7912967507201</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M34" t="n">
         <v>534.8601405048234</v>
       </c>
       <c r="N34" t="n">
-        <v>517.7052302862629</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O34" t="n">
         <v>485.006411183165</v>
@@ -37247,7 +37247,7 @@
         <v>401.3391416378323</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.9212659517818</v>
+        <v>90.02891148676062</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>42.06012558095526</v>
       </c>
       <c r="J35" t="n">
-        <v>139.2334515011802</v>
+        <v>139.2334515011804</v>
       </c>
       <c r="K35" t="n">
         <v>217.0031433876725</v>
@@ -37314,7 +37314,7 @@
         <v>275.268695478618</v>
       </c>
       <c r="M35" t="n">
-        <v>311.487728566483</v>
+        <v>311.4877285664818</v>
       </c>
       <c r="N35" t="n">
         <v>317.2852426969609</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J36" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K36" t="n">
         <v>149.2837922911598</v>
@@ -37405,7 +37405,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q36" t="n">
-        <v>271.5415648594465</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R36" t="n">
         <v>148.85927498986</v>
@@ -37469,22 +37469,22 @@
         <v>82.59386819622839</v>
       </c>
       <c r="L37" t="n">
-        <v>251.8404774315088</v>
+        <v>110.6004951434828</v>
       </c>
       <c r="M37" t="n">
-        <v>534.4427286986311</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N37" t="n">
-        <v>115.6517728702224</v>
+        <v>517.705230286263</v>
       </c>
       <c r="O37" t="n">
         <v>485.006411183165</v>
       </c>
       <c r="P37" t="n">
-        <v>401.3391416378323</v>
+        <v>293.4281891137553</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>139.2334515011802</v>
       </c>
       <c r="K38" t="n">
-        <v>217.0031433876742</v>
+        <v>217.0031433876725</v>
       </c>
       <c r="L38" t="n">
         <v>275.268695478618</v>
@@ -37563,7 +37563,7 @@
         <v>248.1734276171333</v>
       </c>
       <c r="Q38" t="n">
-        <v>178.4607659550238</v>
+        <v>178.4607659550239</v>
       </c>
       <c r="R38" t="n">
         <v>89.79009951709452</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J39" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K39" t="n">
         <v>149.2837922911598</v>
@@ -37639,13 +37639,13 @@
         <v>229.7897616392516</v>
       </c>
       <c r="P39" t="n">
-        <v>446.3463107633938</v>
+        <v>181.2531855058807</v>
       </c>
       <c r="Q39" t="n">
         <v>112.969146960424</v>
       </c>
       <c r="R39" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K40" t="n">
-        <v>137.6957512230701</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L40" t="n">
-        <v>110.6004951434828</v>
+        <v>490.7912967507202</v>
       </c>
       <c r="M40" t="n">
-        <v>534.4427286986312</v>
+        <v>534.4427286986308</v>
       </c>
       <c r="N40" t="n">
-        <v>517.705230286263</v>
+        <v>115.6517728702224</v>
       </c>
       <c r="O40" t="n">
-        <v>485.006411183165</v>
+        <v>386.3842546810878</v>
       </c>
       <c r="P40" t="n">
         <v>85.42378348297616</v>
       </c>
       <c r="Q40" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>42.06012558095526</v>
+        <v>42.06012558095598</v>
       </c>
       <c r="J41" t="n">
         <v>139.2334515011802</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J42" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K42" t="n">
         <v>149.2837922911598</v>
@@ -37879,7 +37879,7 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q42" t="n">
-        <v>271.5415648594465</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R42" t="n">
         <v>148.85927498986</v>
@@ -37940,25 +37940,25 @@
         <v>42.3816032211693</v>
       </c>
       <c r="K43" t="n">
-        <v>332.3742814427153</v>
+        <v>82.59386819622839</v>
       </c>
       <c r="L43" t="n">
-        <v>110.6004951434828</v>
+        <v>318.6049007742622</v>
       </c>
       <c r="M43" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N43" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O43" t="n">
-        <v>290.3278809635188</v>
+        <v>485.006411183165</v>
       </c>
       <c r="P43" t="n">
         <v>85.42378348297616</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.9212659517818</v>
+        <v>50.0187433478434</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>217.0031433876725</v>
       </c>
       <c r="L44" t="n">
-        <v>275.2686954786183</v>
+        <v>275.268695478618</v>
       </c>
       <c r="M44" t="n">
         <v>311.4877285664818</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.4333050520825</v>
+        <v>44.12755337977123</v>
       </c>
       <c r="J45" t="n">
-        <v>79.83770185885255</v>
+        <v>214.7158714301862</v>
       </c>
       <c r="K45" t="n">
         <v>149.2837922911598</v>
@@ -38116,10 +38116,10 @@
         <v>181.2531855058807</v>
       </c>
       <c r="Q45" t="n">
-        <v>378.0622722179372</v>
+        <v>112.969146960424</v>
       </c>
       <c r="R45" t="n">
-        <v>42.33856763136924</v>
+        <v>148.85927498986</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.3816032211693</v>
+        <v>121.0904079163419</v>
       </c>
       <c r="K46" t="n">
-        <v>82.59386819622839</v>
+        <v>332.3742814427153</v>
       </c>
       <c r="L46" t="n">
-        <v>318.6049007742619</v>
+        <v>218.7306595248293</v>
       </c>
       <c r="M46" t="n">
-        <v>534.4427286986308</v>
+        <v>534.442728698631</v>
       </c>
       <c r="N46" t="n">
         <v>517.705230286263</v>
       </c>
       <c r="O46" t="n">
-        <v>485.006411183165</v>
+        <v>103.4889118870001</v>
       </c>
       <c r="P46" t="n">
         <v>85.42378348297616</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.0187433478434</v>
+        <v>202.9212659517818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
